--- a/dgrtbl.xlsx
+++ b/dgrtbl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Volkan\Desktop\ydk_230525\unit_1page_b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\volka\Documents\unit_1page_b\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E774826-F030-4277-9866-81973103BDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="4188" yWindow="756" windowWidth="21984" windowHeight="15576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl1_1" sheetId="1" r:id="rId1"/>
@@ -878,7 +879,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,7 +941,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection hidden="1"/>
@@ -964,17 +965,11 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 7" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 7" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1251,65 +1246,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AR514"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH36" sqref="AH36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="11"/>
-    </row>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1399,7 +1394,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1489,7 +1484,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -1579,7 +1574,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -1669,7 +1664,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1759,7 +1754,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -1843,7 +1838,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -1915,7 +1910,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1987,7 +1982,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -2059,7 +2054,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -2131,7 +2126,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -2200,7 +2195,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -2269,7 +2264,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -2338,7 +2333,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -2407,7 +2402,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -2476,7 +2471,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -2545,7 +2540,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -2614,7 +2609,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -2683,7 +2678,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -2752,7 +2747,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -2821,7 +2816,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>300</v>
       </c>
@@ -2854,7 +2849,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.3">
       <c r="Y23" s="1"/>
       <c r="Z23" s="2" t="s">
         <v>29</v>
@@ -2884,7 +2879,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.3">
       <c r="Y24" s="1"/>
       <c r="Z24" s="2" t="s">
         <v>30</v>
@@ -2914,7 +2909,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.3">
       <c r="Y25" s="1"/>
       <c r="Z25" s="2" t="s">
         <v>31</v>
@@ -2941,7 +2936,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.3">
       <c r="Y26" s="1"/>
       <c r="Z26" s="2" t="s">
         <v>32</v>
@@ -2962,7 +2957,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.3">
       <c r="Y27" s="1"/>
       <c r="Z27" s="2" t="s">
         <v>33</v>
@@ -2980,7 +2975,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.3">
       <c r="Y28" s="1"/>
       <c r="Z28" s="2" t="s">
         <v>34</v>
@@ -2998,7 +2993,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:44" x14ac:dyDescent="0.3">
       <c r="Y29" s="1"/>
       <c r="Z29" s="2" t="s">
         <v>35</v>
@@ -3016,7 +3011,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:44" x14ac:dyDescent="0.3">
       <c r="Y30" s="1"/>
       <c r="Z30" s="2" t="s">
         <v>36</v>
@@ -3031,7 +3026,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.3">
       <c r="Y31" s="1"/>
       <c r="Z31" s="2" t="s">
         <v>37</v>
@@ -3043,7 +3038,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:44" x14ac:dyDescent="0.3">
       <c r="Y32" s="1"/>
       <c r="Z32" s="2" t="s">
         <v>38</v>
@@ -3055,7 +3050,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y33" s="1"/>
       <c r="Z33" s="2" t="s">
         <v>39</v>
@@ -3067,7 +3062,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y34" s="1"/>
       <c r="Z34" s="2" t="s">
         <v>40</v>
@@ -3079,7 +3074,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y35" s="1"/>
       <c r="Z35" s="2" t="s">
         <v>41</v>
@@ -3091,7 +3086,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y36" s="1"/>
       <c r="Z36" s="2" t="s">
         <v>42</v>
@@ -3103,7 +3098,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y37" s="1"/>
       <c r="Z37" s="2" t="s">
         <v>43</v>
@@ -3112,7 +3107,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y38" s="1"/>
       <c r="Z38" s="2" t="s">
         <v>44</v>
@@ -3121,7 +3116,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y39" s="1"/>
       <c r="Z39" s="2" t="s">
         <v>45</v>
@@ -3130,7 +3125,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y40" s="1"/>
       <c r="Z40" s="2" t="s">
         <v>46</v>
@@ -3139,7 +3134,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y41" s="1"/>
       <c r="Z41" s="2" t="s">
         <v>47</v>
@@ -3148,7 +3143,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y42" s="1"/>
       <c r="Z42" s="2" t="s">
         <v>48</v>
@@ -3157,7 +3152,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y43" s="1"/>
       <c r="Z43" s="2" t="s">
         <v>49</v>
@@ -3166,7 +3161,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y44" s="1"/>
       <c r="Z44" s="2" t="s">
         <v>50</v>
@@ -3175,7 +3170,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y45" s="1"/>
       <c r="Z45" s="4" t="s">
         <v>277</v>
@@ -3184,7 +3179,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y46" s="1"/>
       <c r="Z46" s="4" t="s">
         <v>278</v>
@@ -3193,1613 +3188,1613 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y47" s="1"/>
       <c r="Z47" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="25:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="25:32" x14ac:dyDescent="0.3">
       <c r="Y48" s="1"/>
       <c r="Z48" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y49" s="1"/>
       <c r="Z49" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y50" s="1"/>
       <c r="Z50" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y51" s="1"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y52" s="1"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y53" s="1"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y54" s="1"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y55" s="1"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y56" s="1"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y57" s="1"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y58" s="1"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y59" s="1"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y60" s="1"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y61" s="1"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y62" s="1"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y63" s="1"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y64" s="1"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y65" s="1"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y66" s="1"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y67" s="1"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y68" s="1"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y69" s="1"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y70" s="1"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y71" s="1"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y72" s="1"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y73" s="1"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y74" s="1"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y75" s="1"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y76" s="1"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y77" s="1"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y78" s="1"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y79" s="1"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y80" s="1"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y81" s="1"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y82" s="1"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y83" s="1"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y84" s="1"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y85" s="1"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y86" s="1"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y87" s="1"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y88" s="1"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y89" s="1"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y90" s="1"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y91" s="1"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y92" s="1"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y93" s="1"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y94" s="1"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y95" s="1"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y96" s="1"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y97" s="1"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y98" s="1"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y99" s="1"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y100" s="1"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y101" s="1"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y102" s="1"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y103" s="1"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y104" s="1"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y105" s="1"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y106" s="1"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y107" s="1"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y108" s="1"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y109" s="1"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y110" s="1"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y111" s="1"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y112" s="1"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y113" s="1"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y114" s="1"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y115" s="1"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y116" s="1"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y117" s="1"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y118" s="1"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y119" s="1"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y120" s="1"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y121" s="1"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y122" s="1"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y123" s="1"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y124" s="1"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y125" s="1"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y126" s="1"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y127" s="1"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y128" s="1"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y129" s="1"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y130" s="1"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y131" s="1"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y132" s="1"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y133" s="1"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y134" s="1"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y135" s="1"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y136" s="1"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y137" s="1"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y138" s="1"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y139" s="1"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y140" s="1"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y141" s="1"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y142" s="1"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y143" s="1"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y144" s="1"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y145" s="1"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y146" s="1"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y147" s="1"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y148" s="1"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y149" s="1"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y150" s="1"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y151" s="1"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y152" s="1"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y153" s="1"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y154" s="1"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y155" s="1"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y156" s="1"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y157" s="1"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y158" s="1"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y159" s="1"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y160" s="1"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y161" s="1"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y162" s="1"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y163" s="1"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y164" s="1"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y165" s="1"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y166" s="1"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y167" s="1"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y168" s="1"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y169" s="1"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y170" s="1"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y171" s="1"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y172" s="1"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y173" s="1"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y174" s="1"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y175" s="1"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y176" s="1"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y177" s="1"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y178" s="1"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y179" s="1"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y180" s="1"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y181" s="1"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y182" s="1"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y183" s="1"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y184" s="1"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y185" s="1"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y186" s="1"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y187" s="1"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y188" s="1"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y189" s="1"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y190" s="1"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y191" s="1"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y192" s="1"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y193" s="1"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y194" s="1"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y195" s="1"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y196" s="1"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y197" s="1"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y198" s="1"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y199" s="1"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y200" s="1"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y201" s="1"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y202" s="1"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y203" s="1"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y204" s="1"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y205" s="1"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y206" s="1"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y207" s="1"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y208" s="1"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y209" s="1"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y210" s="1"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y211" s="1"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y212" s="1"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y213" s="1"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y214" s="1"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y215" s="1"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y216" s="1"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y217" s="1"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y218" s="1"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y219" s="1"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y220" s="1"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y221" s="1"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y222" s="1"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y223" s="1"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y224" s="1"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y225" s="1"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y226" s="1"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y227" s="1"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y228" s="1"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y229" s="1"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y230" s="1"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y231" s="1"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y232" s="1"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y233" s="1"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y234" s="1"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y235" s="1"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y236" s="1"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y237" s="1"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y238" s="1"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="239" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y239" s="1"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y240" s="1"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y241" s="1"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y242" s="1"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y243" s="1"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="25:26" x14ac:dyDescent="0.3">
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="258" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="259" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="261" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="262" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="263" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="265" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="266" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="267" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="268" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="269" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="270" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="271" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="272" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="274" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="276" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="289" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="290" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="291" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="292" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="293" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="294" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="295" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="296" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="297" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="298" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="299" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="300" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="301" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="302" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="303" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="304" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="305" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="306" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="307" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="308" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="309" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="310" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="311" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="312" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="313" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="314" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="315" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="316" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="317" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="318" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="319" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="320" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="322" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="323" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="324" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="325" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="326" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="327" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="328" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="329" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="330" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="331" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="332" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="333" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="334" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="335" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="336" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="337" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="338" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="339" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="340" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="341" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="342" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="343" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="344" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="345" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="346" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="347" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="348" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="349" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="350" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="351" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="352" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="353" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="354" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="355" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="356" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="357" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="358" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="359" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="360" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="361" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="362" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="363" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="364" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="365" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="366" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="367" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="368" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="369" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="370" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="371" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="372" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="373" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="374" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="375" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="376" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="377" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="378" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="379" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="380" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="381" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="382" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="383" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="384" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="385" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="386" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="387" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="388" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="389" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="390" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="391" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="392" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="393" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="394" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="395" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="396" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="397" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="398" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="399" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="400" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="401" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="402" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="403" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="404" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="405" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="406" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="407" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="408" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="409" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="410" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="411" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="412" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="413" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="414" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="415" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="416" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="417" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="418" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="419" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="420" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="421" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="422" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="423" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="424" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="425" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="426" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="427" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="428" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="429" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="430" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="431" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="432" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="433" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="434" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="435" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="436" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="437" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="438" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="439" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="440" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="441" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="442" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="443" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="444" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="445" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="446" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="447" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="448" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="449" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="450" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="451" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="452" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="453" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="454" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="455" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="456" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="457" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="458" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="459" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="460" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="461" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="462" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="463" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="464" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="465" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="466" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="467" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="468" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="469" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="470" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="471" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="472" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="473" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="474" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="475" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="476" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="477" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="478" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="479" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="480" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="481" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="482" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="483" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="484" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="485" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="486" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="487" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="488" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="489" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="490" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="491" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="492" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="493" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="494" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="495" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="496" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="497" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="498" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="499" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="500" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="501" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="502" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="503" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="504" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="505" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="506" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="507" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="508" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="509" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="510" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="511" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="512" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="513" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="514" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y514" s="1"/>
     </row>
   </sheetData>
